--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.57125</v>
+        <v>0.02215633333333333</v>
       </c>
       <c r="N2">
-        <v>1.71375</v>
+        <v>0.066469</v>
       </c>
       <c r="O2">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="P2">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="Q2">
-        <v>85.70773976833333</v>
+        <v>3.764707935044334</v>
       </c>
       <c r="R2">
-        <v>771.3696579149999</v>
+        <v>33.882371415399</v>
       </c>
       <c r="S2">
-        <v>0.4106440945018521</v>
+        <v>0.01597153707754774</v>
       </c>
       <c r="T2">
-        <v>0.4106440945018521</v>
+        <v>0.01597153707754774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.006408333333333333</v>
+        <v>0.5939420000000001</v>
       </c>
       <c r="N3">
-        <v>0.019225</v>
+        <v>1.781826</v>
       </c>
       <c r="O3">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="P3">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="Q3">
-        <v>0.9614770515222221</v>
+        <v>100.920045149894</v>
       </c>
       <c r="R3">
-        <v>8.653293463699999</v>
+        <v>908.2804063490461</v>
       </c>
       <c r="S3">
-        <v>0.004606641993755278</v>
+        <v>0.4281469560959031</v>
       </c>
       <c r="T3">
-        <v>0.004606641993755277</v>
+        <v>0.4281469560959031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +667,40 @@
         <v>205.146729</v>
       </c>
       <c r="I4">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J4">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.57125</v>
+        <v>0.02215633333333333</v>
       </c>
       <c r="N4">
-        <v>1.71375</v>
+        <v>0.066469</v>
       </c>
       <c r="O4">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="P4">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="Q4">
-        <v>39.06335631375001</v>
+        <v>1.515099769989</v>
       </c>
       <c r="R4">
-        <v>351.57020682375</v>
+        <v>13.635897929901</v>
       </c>
       <c r="S4">
-        <v>0.1871608868116464</v>
+        <v>0.00642771566083742</v>
       </c>
       <c r="T4">
-        <v>0.1871608868116464</v>
+        <v>0.00642771566083742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.006408333333333333</v>
+        <v>0.5939420000000001</v>
       </c>
       <c r="N5">
-        <v>0.019225</v>
+        <v>1.781826</v>
       </c>
       <c r="O5">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="P5">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="Q5">
-        <v>0.438216207225</v>
+        <v>40.61508617190601</v>
       </c>
       <c r="R5">
-        <v>3.943945865025</v>
+        <v>365.535775547154</v>
       </c>
       <c r="S5">
-        <v>0.002099587482978206</v>
+        <v>0.1723069533931201</v>
       </c>
       <c r="T5">
-        <v>0.002099587482978206</v>
+        <v>0.1723069533931201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H6">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I6">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J6">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.57125</v>
+        <v>0.02215633333333333</v>
       </c>
       <c r="N6">
-        <v>1.71375</v>
+        <v>0.066469</v>
       </c>
       <c r="O6">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="P6">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="Q6">
-        <v>21.797723225</v>
+        <v>1.180370549115333</v>
       </c>
       <c r="R6">
-        <v>196.179509025</v>
+        <v>10.623334942038</v>
       </c>
       <c r="S6">
-        <v>0.1044375495156776</v>
+        <v>0.005007647954560098</v>
       </c>
       <c r="T6">
-        <v>0.1044375495156775</v>
+        <v>0.005007647954560099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H7">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I7">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J7">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.006408333333333333</v>
+        <v>0.5939420000000001</v>
       </c>
       <c r="N7">
-        <v>0.019225</v>
+        <v>1.781826</v>
       </c>
       <c r="O7">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="P7">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="Q7">
-        <v>0.2445287988333333</v>
+        <v>31.642042667228</v>
       </c>
       <c r="R7">
-        <v>2.2007591895</v>
+        <v>284.778384005052</v>
       </c>
       <c r="S7">
-        <v>0.00117158972396143</v>
+        <v>0.1342393796248176</v>
       </c>
       <c r="T7">
-        <v>0.00117158972396143</v>
+        <v>0.1342393796248177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H8">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I8">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J8">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.57125</v>
+        <v>0.02215633333333333</v>
       </c>
       <c r="N8">
-        <v>1.71375</v>
+        <v>0.066469</v>
       </c>
       <c r="O8">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="P8">
-        <v>0.988906360449516</v>
+        <v>0.03596233285271019</v>
       </c>
       <c r="Q8">
-        <v>59.83115120625001</v>
+        <v>2.016631410190222</v>
       </c>
       <c r="R8">
-        <v>538.4803608562501</v>
+        <v>18.149682691712</v>
       </c>
       <c r="S8">
-        <v>0.2866638296203399</v>
+        <v>0.008555432159764932</v>
       </c>
       <c r="T8">
-        <v>0.2866638296203399</v>
+        <v>0.008555432159764932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H9">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I9">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J9">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.006408333333333333</v>
+        <v>0.5939420000000001</v>
       </c>
       <c r="N9">
-        <v>0.019225</v>
+        <v>1.781826</v>
       </c>
       <c r="O9">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="P9">
-        <v>0.01109363955048399</v>
+        <v>0.9640376671472898</v>
       </c>
       <c r="Q9">
-        <v>0.6711911783750001</v>
+        <v>54.05958084360534</v>
       </c>
       <c r="R9">
-        <v>6.040720605375</v>
+        <v>486.536227592448</v>
       </c>
       <c r="S9">
-        <v>0.003215820349789079</v>
+        <v>0.2293443780334489</v>
       </c>
       <c r="T9">
-        <v>0.003215820349789078</v>
+        <v>0.2293443780334489</v>
       </c>
     </row>
   </sheetData>
